--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H2">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I2">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J2">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>787.1317651101766</v>
+        <v>477.2494747463243</v>
       </c>
       <c r="R2">
-        <v>7084.185885991589</v>
+        <v>4295.245272716919</v>
       </c>
       <c r="S2">
-        <v>0.05772417629900293</v>
+        <v>0.03723585744562884</v>
       </c>
       <c r="T2">
-        <v>0.06428512779441363</v>
+        <v>0.04195647596909603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H3">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I3">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J3">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>128.569381771044</v>
+        <v>114.589339248232</v>
       </c>
       <c r="R3">
-        <v>1157.124435939396</v>
+        <v>1031.304053234088</v>
       </c>
       <c r="S3">
-        <v>0.009428614101181322</v>
+        <v>0.008940465158822745</v>
       </c>
       <c r="T3">
-        <v>0.01050027391086603</v>
+        <v>0.01007390288074919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H4">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I4">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J4">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>170.438444083095</v>
+        <v>188.157514451204</v>
       </c>
       <c r="R4">
-        <v>1533.945996747855</v>
+        <v>1693.417630060836</v>
       </c>
       <c r="S4">
-        <v>0.01249907478070488</v>
+        <v>0.0146803857440659</v>
       </c>
       <c r="T4">
-        <v>0.01391972430108847</v>
+        <v>0.01654150847975884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H5">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I5">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J5">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>326.419281924112</v>
+        <v>295.020992610792</v>
       </c>
       <c r="R5">
-        <v>1958.515691544672</v>
+        <v>1770.125955664752</v>
       </c>
       <c r="S5">
-        <v>0.02393790342655525</v>
+        <v>0.0230180654052317</v>
       </c>
       <c r="T5">
-        <v>0.01777246299638715</v>
+        <v>0.0172908046934753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H6">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I6">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J6">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>199.221538807669</v>
+        <v>170.5838036538466</v>
       </c>
       <c r="R6">
-        <v>1792.993849269021</v>
+        <v>1535.25423288462</v>
       </c>
       <c r="S6">
-        <v>0.01460987821661964</v>
+        <v>0.01330925340203676</v>
       </c>
       <c r="T6">
-        <v>0.01627044244600917</v>
+        <v>0.01499654926288577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J7">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>1329.848077784284</v>
+        <v>904.6766693161954</v>
       </c>
       <c r="R7">
-        <v>11968.63270005856</v>
+        <v>8142.090023845759</v>
       </c>
       <c r="S7">
-        <v>0.09752418628686049</v>
+        <v>0.07058449149881144</v>
       </c>
       <c r="T7">
-        <v>0.1086088218222928</v>
+        <v>0.07953292134295664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J8">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>217.216167341696</v>
@@ -948,10 +948,10 @@
         <v>1954.945506075264</v>
       </c>
       <c r="S8">
-        <v>0.01592951128947352</v>
+        <v>0.01694759380577725</v>
       </c>
       <c r="T8">
-        <v>0.01774006550811619</v>
+        <v>0.01909614444314525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J9">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>287.95336091248</v>
+        <v>356.672395650112</v>
       </c>
       <c r="R9">
-        <v>2591.58024821232</v>
+        <v>3210.051560851008</v>
       </c>
       <c r="S9">
-        <v>0.02111701154491689</v>
+        <v>0.02782821811648476</v>
       </c>
       <c r="T9">
-        <v>0.02351717898527274</v>
+        <v>0.03135617237690651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J10">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>551.4807988440747</v>
+        <v>559.243379189376</v>
       </c>
       <c r="R10">
-        <v>3308.884793064448</v>
+        <v>3355.460275136256</v>
       </c>
       <c r="S10">
-        <v>0.04044275211474218</v>
+        <v>0.04363316849322051</v>
       </c>
       <c r="T10">
-        <v>0.03002632697707171</v>
+        <v>0.03277654230673525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J11">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>336.5819957723627</v>
+        <v>323.3595750123733</v>
       </c>
       <c r="R11">
-        <v>3029.237961951264</v>
+        <v>2910.23617511136</v>
       </c>
       <c r="S11">
-        <v>0.02468318434628872</v>
+        <v>0.0252290922797555</v>
       </c>
       <c r="T11">
-        <v>0.02748868432275314</v>
+        <v>0.028427539381987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H12">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I12">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J12">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>1846.244847174444</v>
+        <v>1563.068212730871</v>
       </c>
       <c r="R12">
-        <v>16616.20362457</v>
+        <v>14067.61391457784</v>
       </c>
       <c r="S12">
-        <v>0.1353940569715238</v>
+        <v>0.1219533770633842</v>
       </c>
       <c r="T12">
-        <v>0.1507829961909542</v>
+        <v>0.1374141562761474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H13">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I13">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J13">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>301.5639428119999</v>
+        <v>375.298377838864</v>
       </c>
       <c r="R13">
-        <v>2714.075485308</v>
+        <v>3377.685400549776</v>
       </c>
       <c r="S13">
-        <v>0.02211514129132592</v>
+        <v>0.02928145055416076</v>
       </c>
       <c r="T13">
-        <v>0.02462875653245064</v>
+        <v>0.0329936400231906</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H14">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I14">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J14">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>399.769280185</v>
+        <v>616.245895255208</v>
       </c>
       <c r="R14">
-        <v>3597.923521665</v>
+        <v>5546.213057296872</v>
       </c>
       <c r="S14">
-        <v>0.02931701327679793</v>
+        <v>0.04808060672958043</v>
       </c>
       <c r="T14">
-        <v>0.03264919598483781</v>
+        <v>0.05417608077844896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H15">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I15">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J15">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>765.6277436426667</v>
+        <v>966.2408447559841</v>
       </c>
       <c r="R15">
-        <v>4593.766461856</v>
+        <v>5797.445068535904</v>
       </c>
       <c r="S15">
-        <v>0.05614718248253011</v>
+        <v>0.07538783855676713</v>
       </c>
       <c r="T15">
-        <v>0.04168592818012553</v>
+        <v>0.05663014548790166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H16">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I16">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J16">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>467.2810268536667</v>
+        <v>558.6891871170267</v>
       </c>
       <c r="R16">
-        <v>4205.529241683</v>
+        <v>5028.202684053241</v>
       </c>
       <c r="S16">
-        <v>0.03426797592332543</v>
+        <v>0.04358992943671979</v>
       </c>
       <c r="T16">
-        <v>0.03816288689986756</v>
+        <v>0.04911609272263502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H17">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I17">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J17">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>740.2785431485783</v>
+        <v>536.83246623462</v>
       </c>
       <c r="R17">
-        <v>4441.67125889147</v>
+        <v>3220.99479740772</v>
       </c>
       <c r="S17">
-        <v>0.0542882031054817</v>
+        <v>0.041884628988901</v>
       </c>
       <c r="T17">
-        <v>0.04030574706731392</v>
+        <v>0.03146306723679547</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H18">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I18">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J18">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>120.916419397278</v>
+        <v>128.895432782868</v>
       </c>
       <c r="R18">
-        <v>725.4985163836679</v>
+        <v>773.372596697208</v>
       </c>
       <c r="S18">
-        <v>0.008867385385921597</v>
+        <v>0.0100566521588036</v>
       </c>
       <c r="T18">
-        <v>0.006583503819769327</v>
+        <v>0.007554397178338343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H19">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I19">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J19">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>160.2932681349525</v>
+        <v>211.648347181746</v>
       </c>
       <c r="R19">
-        <v>961.759608809715</v>
+        <v>1269.890083090476</v>
       </c>
       <c r="S19">
-        <v>0.01175507999994157</v>
+        <v>0.01651318252042383</v>
       </c>
       <c r="T19">
-        <v>0.008727444529948799</v>
+        <v>0.0124044401126544</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H20">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I20">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J20">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>306.989504412344</v>
+        <v>331.853371108308</v>
       </c>
       <c r="R20">
-        <v>1227.958017649376</v>
+        <v>1327.413484433232</v>
       </c>
       <c r="S20">
-        <v>0.02251302394353413</v>
+        <v>0.02589179343991618</v>
       </c>
       <c r="T20">
-        <v>0.01114305007818349</v>
+        <v>0.01296633566293374</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H21">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I21">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J21">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>187.3630782664655</v>
+        <v>191.88061770807</v>
       </c>
       <c r="R21">
-        <v>1124.178469598793</v>
+        <v>1151.28370624842</v>
       </c>
       <c r="S21">
-        <v>0.01374023999687458</v>
+        <v>0.01497086891788544</v>
       </c>
       <c r="T21">
-        <v>0.01020130721368998</v>
+        <v>0.01124587866067763</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H22">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I22">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J22">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N22">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O22">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P22">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q22">
-        <v>1955.83785840011</v>
+        <v>1428.954184032889</v>
       </c>
       <c r="R22">
-        <v>17602.54072560099</v>
+        <v>12860.587656296</v>
       </c>
       <c r="S22">
-        <v>0.1434310421137044</v>
+        <v>0.1114895607192983</v>
       </c>
       <c r="T22">
-        <v>0.159733468074185</v>
+        <v>0.1256237776169011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H23">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I23">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J23">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P23">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q23">
-        <v>319.464764916084</v>
+        <v>343.0971104816</v>
       </c>
       <c r="R23">
-        <v>2875.182884244756</v>
+        <v>3087.8739943344</v>
       </c>
       <c r="S23">
-        <v>0.02342789508533472</v>
+        <v>0.0267690500920733</v>
       </c>
       <c r="T23">
-        <v>0.02609071841430282</v>
+        <v>0.03016272711172513</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H24">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I24">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J24">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N24">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O24">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P24">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q24">
-        <v>423.499566705795</v>
+        <v>563.3709029752</v>
       </c>
       <c r="R24">
-        <v>3811.496100352155</v>
+        <v>5070.3381267768</v>
       </c>
       <c r="S24">
-        <v>0.03105726986847605</v>
+        <v>0.04395520527990128</v>
       </c>
       <c r="T24">
-        <v>0.03458725079243895</v>
+        <v>0.04952767682967252</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H25">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I25">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J25">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N25">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O25">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P25">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q25">
-        <v>811.0753721260321</v>
+        <v>883.3356642096002</v>
       </c>
       <c r="R25">
-        <v>4866.452232756193</v>
+        <v>5300.0139852576</v>
       </c>
       <c r="S25">
-        <v>0.05948007671349557</v>
+        <v>0.06891942811803348</v>
       </c>
       <c r="T25">
-        <v>0.04416040300505925</v>
+        <v>0.05177117842857791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H26">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I26">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J26">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N26">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O26">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P26">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q26">
-        <v>495.018807625209</v>
+        <v>510.7526626173334</v>
       </c>
       <c r="R26">
-        <v>4455.169268626881</v>
+        <v>4596.773963556001</v>
       </c>
       <c r="S26">
-        <v>0.03630212143538653</v>
+        <v>0.0398498360743159</v>
       </c>
       <c r="T26">
-        <v>0.04042823415260159</v>
+        <v>0.04490184473570446</v>
       </c>
     </row>
   </sheetData>
